--- a/public/assets/BOs/Hades.xlsx
+++ b/public/assets/BOs/Hades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1DA3F8-4E60-4912-A430-1C2064BA420C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7117F4B6-C8F0-4112-845D-B23A1603C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
-    <t>Hades - Vault of Erebus - Basic Build (2TC)</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -415,9 +412,6 @@
   </si>
   <si>
     <t>2 to Wood</t>
-  </si>
-  <si>
-    <t>Hades - Vault of Erebus - 2 TC - Hoplites/Toxotes</t>
   </si>
   <si>
     <r>
@@ -916,6 +910,12 @@
   </si>
   <si>
     <t>Below is the 2nd TC BO (as shown in video), however you can divert with this basic archaic BO to many other strats (early military presence, fast Heroic/Mythic, ...)</t>
+  </si>
+  <si>
+    <t>Vault of Erebus - Basic Build (2TC)</t>
+  </si>
+  <si>
+    <t>Vault of Erebus - 2 TC - Hoplites/Toxotes</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1296,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1310,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1334,63 +1334,63 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -1398,17 +1398,17 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1432,45 +1432,45 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C195C103-11C1-4E0B-8DEA-44E3F4D5C478}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1524,7 +1524,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1548,81 +1548,81 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1630,27 +1630,27 @@
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1658,59 +1658,59 @@
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="1"/>
@@ -1718,67 +1718,67 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="1"/>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="1"/>
@@ -1794,20 +1794,20 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="11"/>

--- a/public/assets/BOs/Hades.xlsx
+++ b/public/assets/BOs/Hades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7117F4B6-C8F0-4112-845D-B23A1603C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC007448-D7DB-4592-9B33-77C1D9678589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>Archaic</t>
   </si>
@@ -917,12 +917,15 @@
   <si>
     <t>Vault of Erebus - 2 TC - Hoplites/Toxotes</t>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LMp6uiHHVc8&amp;ab_channel=DeitiesofDeath</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1007,6 +1010,14 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1043,10 +1054,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1075,8 +1087,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1511,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C195C103-11C1-4E0B-8DEA-44E3F4D5C478}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1812,6 +1826,11 @@
       <c r="C29" s="1"/>
       <c r="D29" s="11"/>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A27:B27"/>
@@ -1822,6 +1841,9 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A20:B20"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1" tooltip="https://www.youtube.com/watch?v=LMp6uiHHVc8&amp;ab_channel=DeitiesofDeath" xr:uid="{801DD6A2-C0E7-4F38-BC4B-7E85519A2A85}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/assets/BOs/Hades.xlsx
+++ b/public/assets/BOs/Hades.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC007448-D7DB-4592-9B33-77C1D9678589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B47F36C-F523-4F09-99D5-1728556A773E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId1"/>
     <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Archaic</t>
   </si>
@@ -82,333 +82,13 @@
     <t>Pre-queue Vault of Erebus</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 1 / 3 / 0</t>
-    </r>
-  </si>
-  <si>
     <t>3 to Food</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>1 to Food</t>
-  </si>
-  <si>
-    <t>Vills transition:
-At 150 Gold, 3 gold Villagers build Temple,
-After that 1 of them to Wood and 2 on temple</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">4 / 3 / 0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
     <t>1 to Wood</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 3 / 0 / 3</t>
-    </r>
-  </si>
-  <si>
-    <t>2 to Temple</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">5 / 3 / 0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>Vills transition:
-At 15  Favor: 3 Temple villagers to Food
-+
-3 Wood vills force-drop Wood and build a House, then back to Wood</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">10 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 0 / 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">10 / 5 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 1</t>
-    </r>
-  </si>
-  <si>
-    <t>Advance (Athena) 3.15</t>
-  </si>
-  <si>
     <t>Make Ajax</t>
-  </si>
-  <si>
-    <t>3 / 8 / 6 / 0</t>
-  </si>
-  <si>
-    <t>Vills transition:
-3 Food to Wood
-4 Food to Gold
-1 Temple to Gold (once 5 favor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 / 6 / 0 / 0 / 8 Build TC </t>
-  </si>
-  <si>
-    <t>Vills transition:
-6 Gold + 2 Wood to 2nd TC once around 330 gold (Force Drop)
-(Vault of Erebus gives enough Gold for 2nd TC)</t>
-  </si>
-  <si>
-    <t>Classical (4.15)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 6 / 0 / 0 / 8 Build TC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">5 Food (4 Food vills per TC is needed for continuous vill production)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Vills transition:
-Once 2nd TC is build, the 8 Builders can be shifted 
-towards whatever your strategy is</t>
-    </r>
-  </si>
-  <si>
-    <t>Wood vill builds House(s), then back to Wood</t>
   </si>
   <si>
     <t>2 to Wood</t>
@@ -906,19 +586,149 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>Remark:</t>
-  </si>
-  <si>
-    <t>Below is the 2nd TC BO (as shown in video), however you can divert with this basic archaic BO to many other strats (early military presence, fast Heroic/Mythic, ...)</t>
-  </si>
-  <si>
-    <t>Vault of Erebus - Basic Build (2TC)</t>
-  </si>
-  <si>
     <t>Vault of Erebus - 2 TC - Hoplites/Toxotes</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=LMp6uiHHVc8&amp;ab_channel=DeitiesofDeath</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">/ 2/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vills transition:
+At 150 Gold, 3 gold Villagers build Temple
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>6 to Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vills transition:
+At 15  Favor: 2 Temple villagers to Food + 1 Villager build House, then back to Temple
+</t>
+  </si>
+  <si>
+    <t>Advance (Athena) 3.12</t>
+  </si>
+  <si>
+    <t>2 / 7 / 5 / 0</t>
+  </si>
+  <si>
+    <t>Vills transition:
+5 Food to Wood
+4 Food to Gold
+1 Temple to Gold (once 5 favor)</t>
+  </si>
+  <si>
+    <t>Classical (4.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 / 4 / 0 / 0 / 8 Build TC </t>
+  </si>
+  <si>
+    <t>Vills transition:
+On 330 Gold: 5 Gold  to 2nd TC 
+On 350 Wood: + 3 Wood to 2nd TC (once enough resources)</t>
+  </si>
+  <si>
+    <t>New patch - Vault of Erebus - Basic Build (2TC)</t>
   </si>
 </sst>
 </file>
@@ -1058,26 +868,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1087,7 +888,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1303,223 +1114,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F89BDEB-2681-4028-BD33-2442CFB0B2EE}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1527,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C195C103-11C1-4E0B-8DEA-44E3F4D5C478}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1537,20 +1274,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1562,20 +1299,20 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1584,63 +1321,63 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1648,27 +1385,27 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1676,159 +1413,159 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="14"/>
+      <c r="A20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="11"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>59</v>
+      <c r="A21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="12" t="s">
-        <v>64</v>
+      <c r="D22" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="14"/>
+      <c r="A26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="14"/>
+      <c r="A27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="11"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>59</v>
+      <c r="A28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>80</v>
+      <c r="A30" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/BOs/Hades.xlsx
+++ b/public/assets/BOs/Hades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B47F36C-F523-4F09-99D5-1728556A773E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF12F11A-A9D9-45EA-8023-0AEE94D1484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="5" r:id="rId1"/>
@@ -586,9 +586,6 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>Vault of Erebus - 2 TC - Hoplites/Toxotes</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=LMp6uiHHVc8&amp;ab_channel=DeitiesofDeath</t>
   </si>
   <si>
@@ -728,7 +725,10 @@
 On 350 Wood: + 3 Wood to 2nd TC (once enough resources)</t>
   </si>
   <si>
-    <t>New patch - Vault of Erebus - Basic Build (2TC)</t>
+    <t>OUTDATED - Vault of Erebus - 2 TC - Hoplites/Toxotes</t>
+  </si>
+  <si>
+    <t>Vault of Erebus - Basic Build (2TC)</t>
   </si>
 </sst>
 </file>
@@ -868,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -879,6 +879,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,17 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1118,136 +1114,136 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="B10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="B13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1265,7 +1261,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1274,20 +1270,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1372,12 +1368,12 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1400,12 +1396,12 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1460,10 +1456,10 @@
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
@@ -1528,18 +1524,18 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="1"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="1"/>
       <c r="D27" s="7"/>
     </row>
@@ -1565,7 +1561,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/BOs/Hades.xlsx
+++ b/public/assets/BOs/Hades.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C71CEA-25C5-46AF-A775-5B70400B1EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDE1D7-0B17-446C-A890-B7467B9716E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="5" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="6" r:id="rId2"/>
     <sheet name="Feuil4" sheetId="7" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="8" r:id="rId4"/>
+    <sheet name="Feuil5" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="136">
   <si>
     <t>Archaic</t>
   </si>
@@ -822,17 +824,273 @@
   </si>
   <si>
     <t>2TC Hades VOE - By Motoba</t>
+  </si>
+  <si>
+    <t>0 / 2 / 2 / 0</t>
+  </si>
+  <si>
+    <t>2 initial villagers go to gold, 2 to wood (2storehouses)</t>
+  </si>
+  <si>
+    <t>Next three villagers go to food (first one builds storehouse)</t>
+  </si>
+  <si>
+    <t>3 / 2 / 0 / 2</t>
+  </si>
+  <si>
+    <t>At 1:20 2 gold villagers build temple and start praying</t>
+  </si>
+  <si>
+    <t>TC's rally point to food, preque VoE</t>
+  </si>
+  <si>
+    <t>6 / 2 / 0 / 2</t>
+  </si>
+  <si>
+    <t>Wood villager makes house</t>
+  </si>
+  <si>
+    <t>After 9th villager on food, next villager go to gold</t>
+  </si>
+  <si>
+    <t>Once you have 15 favor 1 villager go to gold, 1 keeps praying until you have 5 favor then he goes to gold as well</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Make sure your scouting and gathering ships/cows</t>
+  </si>
+  <si>
+    <t>Cancel next villager and age up</t>
+  </si>
+  <si>
+    <t>Advance - Ares/Athena (3:10)</t>
+  </si>
+  <si>
+    <t>QUE UP VILLAGERS AGAIN</t>
+  </si>
+  <si>
+    <t>9 / 2 / 2 / 0</t>
+  </si>
+  <si>
+    <t>4 villagers from food to wood</t>
+  </si>
+  <si>
+    <t>2 Villagers from food go to gold</t>
+  </si>
+  <si>
+    <t>Rally point of TC to food</t>
+  </si>
+  <si>
+    <t>3 / 5 / 6 / 0</t>
+  </si>
+  <si>
+    <t>Train Ajax</t>
+  </si>
+  <si>
+    <t>Build a house with wood villager</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Train Achilles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>, main TC rally point to food</t>
+    </r>
+  </si>
+  <si>
+    <t>Wood villager builds house</t>
+  </si>
+  <si>
+    <t>When you have 320 gold, send gold villagers and 2 from wood to the second tc with 2 heroes and myth unit</t>
+  </si>
+  <si>
+    <t>When villagers building second TC are done, send them all to food</t>
+  </si>
+  <si>
+    <t>13 / 4 / 3 / 0</t>
+  </si>
+  <si>
+    <t>Distribute villagers according to your gameplan</t>
+  </si>
+  <si>
+    <t>0 / 0 / 4 / 0</t>
+  </si>
+  <si>
+    <t>Initial 4 villagers build storehouse between wood and gold (if not possible it could also be strugler tree and gold), then go to gold</t>
+  </si>
+  <si>
+    <t>After you have enough gold make temple with all gold villagers, then two to wood, 2 praying (preque VOE)</t>
+  </si>
+  <si>
+    <t>3 / 3 / 0 / 2</t>
+  </si>
+  <si>
+    <t>1 villager to wood, then rally point to food</t>
+  </si>
+  <si>
+    <t>TC's rally point to food</t>
+  </si>
+  <si>
+    <t>7 / 3 / 2 / 0</t>
+  </si>
+  <si>
+    <t>After 9th villager on food, next one goes to gold</t>
+  </si>
+  <si>
+    <t>Cancel villager and age up</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance - Ares/Athena (3:30)</t>
+  </si>
+  <si>
+    <t>9 / 3 / 2 / 0</t>
+  </si>
+  <si>
+    <t>1 villager to wood</t>
+  </si>
+  <si>
+    <t>3 Villagers go to gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rally point of TC to chicken's or barrie's </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">5 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Research husbandry </t>
+  </si>
+  <si>
+    <t>Classical (4:30)</t>
+  </si>
+  <si>
+    <t>5 / 4 / 5 / 0</t>
+  </si>
+  <si>
+    <t>Train Achilles</t>
+  </si>
+  <si>
+    <t>Switch 2 gold villagers to food</t>
+  </si>
+  <si>
+    <t>Wood villager makes market</t>
+  </si>
+  <si>
+    <t>10 / 4 / 3 / 0</t>
+  </si>
+  <si>
+    <t>Once starting hunt is eaten vills to the next food sorce</t>
+  </si>
+  <si>
+    <t>Villagers still going to food</t>
+  </si>
+  <si>
+    <t>16 / 4 / 5 / 0</t>
+  </si>
+  <si>
+    <t>Age up thru Apollo/Aphrodite (7:00)</t>
+  </si>
+  <si>
+    <t>Distribute villagers according to your game plan while your advancing to the heroic</t>
+  </si>
+  <si>
+    <t>*Note: you can also use market to advance faster, but have in mind that is not optimal, and you can use your exces ressources to produce units such as archers while your gathering food needed for heroic!</t>
+  </si>
+  <si>
+    <t>2TC VoE (no herding) - By Motoba</t>
+  </si>
+  <si>
+    <t>Fast heroic (with VOE) - By Motoba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1072,6 +1330,19 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1112,109 +1383,252 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,9 +1850,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="40" t="s">
         <v>22</v>
       </c>
@@ -1446,7 +1860,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1876,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1476,7 +1890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1900,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1498,7 +1912,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1510,7 +1924,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6">
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="42" t="s">
         <v>16</v>
       </c>
@@ -1528,7 +1942,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6">
+    <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1538,7 +1952,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
+    <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="42" t="s">
         <v>19</v>
       </c>
@@ -1554,7 +1968,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6">
+    <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1583,9 +1997,9 @@
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="43" t="s">
         <v>39</v>
       </c>
@@ -1593,7 +2007,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +2023,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="105.6">
+    <row r="4" spans="1:4" ht="120.75">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +2035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -1631,7 +2045,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
@@ -1641,7 +2055,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
@@ -1651,7 +2065,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="315">
+    <row r="8" spans="1:4" ht="345">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
@@ -1663,7 +2077,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="44" t="s">
         <v>33</v>
       </c>
@@ -1671,7 +2085,7 @@
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
     </row>
-    <row r="10" spans="1:4" ht="151.80000000000001">
+    <row r="10" spans="1:4" ht="156.75">
       <c r="A10" s="12"/>
       <c r="B10" s="14" t="s">
         <v>34</v>
@@ -1683,7 +2097,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="82.8">
+    <row r="11" spans="1:4" ht="85.5">
       <c r="A11" s="9"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
@@ -1691,7 +2105,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
+    <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="44" t="s">
         <v>38</v>
       </c>
@@ -1717,13 +2131,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946A14CF-AEE9-4BE1-A408-B9C1A2B1DD8D}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="43" t="s">
         <v>76</v>
       </c>
@@ -1731,7 +2145,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +2153,7 @@
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
     </row>
-    <row r="3" spans="1:4" ht="13.8">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -1747,7 +2161,7 @@
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="25" t="s">
         <v>40</v>
       </c>
@@ -1761,7 +2175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="179.4">
+    <row r="5" spans="1:4" ht="242.25">
       <c r="A5" s="28" t="s">
         <v>44</v>
       </c>
@@ -1775,7 +2189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.8">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="25" t="s">
         <v>48</v>
       </c>
@@ -1789,7 +2203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.8">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="28" t="s">
         <v>52</v>
       </c>
@@ -1799,7 +2213,7 @@
       </c>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6">
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="46" t="s">
         <v>54</v>
       </c>
@@ -1807,17 +2221,17 @@
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="15"/>
     </row>
-    <row r="10" spans="1:4" ht="19.2">
+    <row r="10" spans="1:4" ht="19.5">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="110.4">
+    <row r="11" spans="1:4" ht="117">
       <c r="A11" s="29" t="s">
         <v>56</v>
       </c>
@@ -1831,7 +2245,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="25" t="s">
         <v>60</v>
       </c>
@@ -1843,18 +2257,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="22"/>
       <c r="B13" s="18"/>
       <c r="C13" s="24"/>
     </row>
-    <row r="14" spans="1:4" ht="13.8">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="22"/>
       <c r="B14" s="18"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6">
+    <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="46" t="s">
         <v>63</v>
       </c>
@@ -1862,12 +2276,12 @@
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
     </row>
-    <row r="16" spans="1:4" ht="13.8">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="22" t="s">
         <v>64</v>
       </c>
@@ -1879,7 +2293,7 @@
       </c>
       <c r="D17" s="26"/>
     </row>
-    <row r="18" spans="1:4" ht="13.8">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="26" t="s">
         <v>67</v>
       </c>
@@ -1890,7 +2304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="22" t="s">
         <v>70</v>
       </c>
@@ -1904,7 +2318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="96.6">
+    <row r="20" spans="1:4" ht="105">
       <c r="A20" s="29" t="s">
         <v>74</v>
       </c>
@@ -1954,4 +2368,532 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B544A2BC-49CD-40B6-B620-1FC1E7E699AB}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+    </row>
+    <row r="4" spans="1:4" ht="85.5">
+      <c r="A4" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="63"/>
+    </row>
+    <row r="5" spans="1:4" ht="99.75">
+      <c r="A5" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="59"/>
+    </row>
+    <row r="6" spans="1:4" ht="185.25">
+      <c r="A6" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57">
+      <c r="A7" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="71"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.5">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="48"/>
+    </row>
+    <row r="11" spans="1:4" ht="42.75">
+      <c r="A11" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="48"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="1:4" ht="156.75">
+      <c r="A17" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="99.75">
+      <c r="A18" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="1:4" ht="75">
+      <c r="A20" s="61"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="75"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="72"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="51"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="48"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="51"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="52"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="53"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="52"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAA59EF-F675-4F5D-83AF-A6BB261799DF}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+    </row>
+    <row r="4" spans="1:4" ht="185.25">
+      <c r="A4" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="185.25">
+      <c r="A5" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57">
+      <c r="A6" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="97"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="106"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.5">
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="80"/>
+    </row>
+    <row r="11" spans="1:4" ht="57">
+      <c r="A11" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="88"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="80"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="88"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="99"/>
+      <c r="C18" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="92"/>
+      <c r="C19" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="92"/>
+    </row>
+    <row r="20" spans="1:4" ht="216">
+      <c r="A20" s="95"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="107"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="84"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="80"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="84"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="109"/>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="84"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="86"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="85"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="86"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="85"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/assets/BOs/Hades.xlsx
+++ b/public/assets/BOs/Hades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDE1D7-0B17-446C-A890-B7467B9716E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2D45A8-3D0B-4E0F-873B-71482B231DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="5" r:id="rId1"/>
@@ -823,9 +823,6 @@
     <t>Depending on your gameplan distribute villagers accordingly</t>
   </si>
   <si>
-    <t>2TC Hades VOE - By Motoba</t>
-  </si>
-  <si>
     <t>0 / 2 / 2 / 0</t>
   </si>
   <si>
@@ -1069,10 +1066,13 @@
     <t>*Note: you can also use market to advance faster, but have in mind that is not optimal, and you can use your exces ressources to produce units such as archers while your gathering food needed for heroic!</t>
   </si>
   <si>
-    <t>2TC VoE (no herding) - By Motoba</t>
-  </si>
-  <si>
-    <t>Fast heroic (with VOE) - By Motoba</t>
+    <t>Fast heroic (with VOE) - By Motaba</t>
+  </si>
+  <si>
+    <t>2TC VoE (no herding) - By Motaba</t>
+  </si>
+  <si>
+    <t>2TC Hades VOE - By Motaba</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1468,6 +1468,35 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1486,149 +1515,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1853,20 +1739,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
@@ -1925,12 +1811,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
@@ -1953,12 +1839,12 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
@@ -2000,20 +1886,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="9" t="s">
@@ -2078,12 +1964,12 @@
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
     </row>
     <row r="10" spans="1:4" ht="156.75">
       <c r="A10" s="12"/>
@@ -2106,12 +1992,12 @@
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="8"/>
@@ -2131,27 +2017,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946A14CF-AEE9-4BE1-A408-B9C1A2B1DD8D}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="16" t="s">
@@ -2214,12 +2100,12 @@
       <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="15"/>
@@ -2269,12 +2155,12 @@
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="16" t="s">
@@ -2328,10 +2214,10 @@
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="47"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="19"/>
@@ -2381,242 +2267,212 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="85.5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="C4" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" ht="99.75">
+      <c r="A5" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="63"/>
-    </row>
-    <row r="5" spans="1:4" ht="99.75">
-      <c r="A5" s="60" t="s">
+      <c r="B5" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="C5" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" ht="185.25">
+      <c r="A6" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="59"/>
-    </row>
-    <row r="6" spans="1:4" ht="185.25">
-      <c r="A6" s="60" t="s">
+      <c r="B6" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="C6" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="D6" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="78" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="57">
+      <c r="A7" s="28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="57">
-      <c r="A7" s="60" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="64" t="s">
+      <c r="D7" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="63" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="57" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="46" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="71"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-    </row>
-    <row r="10" spans="1:4" ht="19.5">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="69" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="42.75">
+      <c r="A11" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="48"/>
-    </row>
-    <row r="11" spans="1:4" ht="42.75">
-      <c r="A11" s="61" t="s">
+      <c r="B11" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="C11" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="D11" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="67" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" s="25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="57" t="s">
+      <c r="B12" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="C12" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="156.75">
+      <c r="A17" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="58"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="48"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
-      <c r="A16" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-    </row>
-    <row r="17" spans="1:4" ht="156.75">
-      <c r="A17" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="79" t="s">
+      <c r="C17" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="D17" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="66" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="99.75">
+      <c r="A18" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="99.75">
-      <c r="A18" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66" t="s">
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="58"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25">
-      <c r="A19" s="54" t="s">
+      <c r="B19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" ht="75">
+      <c r="A20" s="29"/>
+      <c r="C20" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="58"/>
-    </row>
-    <row r="20" spans="1:4" ht="75">
-      <c r="A20" s="61"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="72"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+      <c r="A21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="51"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="48"/>
+      <c r="A22" s="19"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="51"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="74"/>
+      <c r="A23" s="19"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="53"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="A25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="53"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+      <c r="A27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
+      <c r="A28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2633,259 +2489,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAA59EF-F675-4F5D-83AF-A6BB261799DF}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="185.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="C4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="97" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="185.25">
+      <c r="A5" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="185.25">
-      <c r="A5" s="94" t="s">
+      <c r="B5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="C5" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="D5" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57">
+      <c r="A6" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="93" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57">
-      <c r="A6" s="94" t="s">
+      <c r="B6" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="104" t="s">
+      <c r="D6" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="91" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="28" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="94" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="97"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="46" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57">
+      <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="106"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-    </row>
-    <row r="10" spans="1:4" ht="19.5">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="80"/>
-    </row>
-    <row r="11" spans="1:4" ht="57">
-      <c r="A11" s="95" t="s">
+      <c r="B11" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="C11" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="D11" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="101" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="25" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="91" t="s">
+      <c r="B12" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="C12" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="80"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="46" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
-      <c r="A16" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="88" t="s">
+      <c r="B17" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="C17" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="D17" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="92" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="26" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25">
-      <c r="A18" s="92" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="92" t="s">
+      <c r="D18" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="92" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25">
-      <c r="A19" s="88" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="80" t="s">
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" ht="216">
+      <c r="A20" s="29"/>
+      <c r="C20" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="92"/>
-    </row>
-    <row r="20" spans="1:4" ht="216">
-      <c r="A20" s="95"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="108" t="s">
+      <c r="D20" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="110" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="107"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
+      <c r="A21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="84"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="80"/>
+      <c r="A22" s="19"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="84"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="109"/>
+      <c r="A23" s="19"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="86"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
+      <c r="A25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="85"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="86"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
+      <c r="A27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="85"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
+      <c r="A28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
